--- a/統計資料.xlsx
+++ b/統計資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\學習彙總\python自學\PPT留言\vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEA61BC-B8AA-4C36-A527-A2E2478B856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2870E-9D60-4036-B87E-EA60A7EF5D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A501EEF-2DD3-4998-BF97-E74D61332133}"/>
   </bookViews>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C671F44D-F00F-4988-BDB3-CA2FD47239EA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -521,6 +521,40 @@
         <v>74736</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2128367</v>
+      </c>
+      <c r="C5">
+        <v>444106</v>
+      </c>
+      <c r="D5">
+        <v>387142</v>
+      </c>
+      <c r="E5">
+        <v>103161</v>
+      </c>
+      <c r="F5">
+        <v>105696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1086484</v>
+      </c>
+      <c r="C6">
+        <v>256997</v>
+      </c>
+      <c r="D6">
+        <v>223540</v>
+      </c>
+      <c r="E6">
+        <v>73186</v>
+      </c>
+      <c r="F6">
+        <v>73413</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
